--- a/Account_Book.xlsx
+++ b/Account_Book.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="903">
   <si>
     <t>관리비(30만원), 휴대폰(5), 가스비(5), 인터넷(5), 교통비(10)</t>
   </si>
@@ -3556,10 +3556,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>주담대이자</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>서울숭례초등학교_방과후</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3632,10 +3628,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>캠핑</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>등록금</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3757,6 +3749,257 @@
   </si>
   <si>
     <t>365할인마트_락스 등</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한카드캐시백</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오세이프박스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이프레시_나박김치</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>성북레포츠타운</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레쉬농축산마트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>한살림</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오아시스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버파이낸셜_노즈큐어</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버파이낸셜_큐브</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜카카오_양상추</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버파이낸셜_커피</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버파이낸셜_큐브(여행)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥장군</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSG.COM</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>한살림</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이마트24</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버파이낸셜_장수왕</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>최인숙(친구의친구)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대해상_현이 이영아 보험환급</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연경</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성산업㈜_주유</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>옹진호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>광동석유㈜_공주방문</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이에이치에너지㈜직영의왕휴게소</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>티라이트휴게소(대현)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성산업㈜동마장주유소</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>파리바게뜨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜다이소</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>십일번가_리코타치즈 등</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>오아시스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동집</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레쉬농축산마트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이스페이먼츠_아이허브</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥도날드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOOM</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>공주방문_하이패스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑 N빵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>라인업스포츠_인라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_제로페이</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>노블스위밍랩_제로페이</t>
+  </si>
+  <si>
+    <r>
+      <t>용인대 KAT 태권도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_제로페이</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>연세언어청각말연구원_제로페이</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙명피아노_제로페이</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>노블스위밍랩_제로페이로 변경</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>현이 축구대회 참가비</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔여</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>생활안정 원리금_45만원으로 증액필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주담대이자_ 23만원으로 증액필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세자금대출이자_107만원으로 증액필요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑N빵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSTA_월급</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>노브랜드</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데리아</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡_토토로 담요</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버파이낸셜_블루베리</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4431,8 +4674,8 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4462,8 +4705,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF3333FF"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFCCFFCC"/>
     </mruColors>
@@ -28561,7 +28804,7 @@
         <v>44831</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C248" s="33">
         <v>16000</v>
@@ -28574,7 +28817,7 @@
         <v>44831</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C249" s="33">
         <v>97440</v>
@@ -28587,7 +28830,7 @@
         <v>44831</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C250" s="33">
         <v>9000</v>
@@ -28600,7 +28843,7 @@
         <v>44831</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C251" s="33">
         <v>97440</v>
@@ -28642,7 +28885,7 @@
     <row r="256" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="32"/>
       <c r="B256" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C256" s="33">
         <v>27000</v>
@@ -29991,10 +30234,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E370"/>
+  <dimension ref="A1:E423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30011,8 +30254,8 @@
         <v>9</v>
       </c>
       <c r="B1" s="125">
-        <f>C70</f>
-        <v>615599</v>
+        <f>C69</f>
+        <v>481533</v>
       </c>
       <c r="C1" s="126"/>
       <c r="D1" s="8"/>
@@ -30104,7 +30347,7 @@
         <v>44841</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C11" s="3">
         <v>255730</v>
@@ -30115,7 +30358,7 @@
         <v>44841</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C12" s="3">
         <v>-255730</v>
@@ -30126,7 +30369,7 @@
         <v>44842</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C13" s="3">
         <v>-30000</v>
@@ -30165,7 +30408,7 @@
         <v>-55650</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44845</v>
       </c>
@@ -30176,18 +30419,18 @@
         <v>-65519</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44845</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C18" s="3">
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44845</v>
       </c>
@@ -30198,7 +30441,7 @@
         <v>-721721</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44845</v>
       </c>
@@ -30209,7 +30452,7 @@
         <v>-644140</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44846</v>
       </c>
@@ -30220,533 +30463,600 @@
         <v>-1500000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44846</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C22" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44846</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44846</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-199000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44852</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-140000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-57390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44854</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="3">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-58084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44855</v>
+      </c>
       <c r="B31" s="10" t="s">
-        <v>817</v>
+        <v>865</v>
       </c>
       <c r="C31" s="3">
-        <v>-600000</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" t="s">
-        <v>77</v>
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="C32" s="3">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>867</v>
       </c>
       <c r="C33" s="3">
-        <v>-63000</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" t="s">
-        <v>76</v>
+        <v>-96600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44861</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>898</v>
       </c>
       <c r="C34" s="3">
-        <v>-63000</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44861</v>
+      </c>
       <c r="B35" s="10" t="s">
-        <v>412</v>
+        <v>897</v>
       </c>
       <c r="C35" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>-55400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="10"/>
-      <c r="E36"/>
     </row>
     <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="10" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="C37" s="3">
-        <v>-199000</v>
+        <v>-600000</v>
       </c>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="3">
-        <v>-800000</v>
-      </c>
+      <c r="B38"/>
+      <c r="E38"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-800000</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="10" t="s">
-        <v>816</v>
-      </c>
-      <c r="C40" s="3">
-        <v>-500000</v>
-      </c>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="3">
+        <f>SUM(D42:D49)</f>
+        <v>-1024000</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="119" t="s">
-        <v>361</v>
+      <c r="B42" t="s">
+        <v>62</v>
       </c>
       <c r="D42" s="3">
-        <f>SUM(D43:D50)</f>
-        <v>-1024000</v>
+        <v>-204000</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D43" s="3">
-        <v>-204000</v>
+        <v>-140000</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="3">
-        <v>-140000</v>
+      <c r="B44" s="10" t="s">
+        <v>685</v>
       </c>
       <c r="D44" s="3">
         <v>-140000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="C45" s="3">
-        <v>-140000</v>
+      <c r="B45" t="s">
+        <v>58</v>
       </c>
       <c r="D45" s="3">
-        <v>-140000</v>
+        <v>-150000</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3">
-        <v>-150000</v>
+        <v>-140000</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>61</v>
+      <c r="B47" s="10" t="s">
+        <v>476</v>
       </c>
       <c r="D47" s="3">
-        <v>-140000</v>
+        <v>-90000</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>476</v>
+        <v>711</v>
       </c>
       <c r="D48" s="3">
-        <v>-90000</v>
+        <v>-110000</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D49" s="3">
-        <v>-110000</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="D50" s="3">
-        <v>-50000</v>
-      </c>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="3">
+        <f>C333</f>
+        <v>-414122</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="10"/>
+      <c r="A53" s="119" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" s="3">
+        <f>SUM(D54:D58)</f>
+        <v>-1766000</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="119" t="s">
-        <v>358</v>
+      <c r="B54" t="s">
+        <v>74</v>
       </c>
       <c r="D54" s="3">
-        <f>SUM(D55:D59)</f>
-        <v>-1766000</v>
+        <v>-1050000</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>74</v>
+      <c r="B55" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D55" s="3">
-        <v>-1050000</v>
-      </c>
+        <v>-520000</v>
+      </c>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>207</v>
+      <c r="B56" t="s">
+        <v>75</v>
       </c>
       <c r="D56" s="3">
-        <v>-520000</v>
-      </c>
-      <c r="E56" s="14">
-        <v>189000</v>
-      </c>
+        <v>-70000</v>
+      </c>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D57" s="3">
-        <v>-70000</v>
-      </c>
-      <c r="E57" s="14">
-        <f>(71000000-189000)/(12*35-1)</f>
-        <v>169000</v>
+        <v>-63000</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="3">
         <v>-63000</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="3">
-        <v>-63000</v>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="120" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="120" t="s">
-        <v>35</v>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3">
-        <v>-99000</v>
+        <v>-238590</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="3">
-        <v>-238590</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>132</v>
+      <c r="A63" s="120" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="120" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="10" t="s">
+      <c r="B64" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D64" s="3">
         <v>840000</v>
       </c>
-      <c r="D65" s="3">
-        <v>840000</v>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="3">
+        <f>SUM(C4:C36)</f>
+        <v>3836348</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="120" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C67" s="3">
-        <f>SUM(C4:C30)</f>
-        <v>3570222</v>
+        <f>SUM(C37:C65)</f>
+        <v>-1814122</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="120" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C68" s="3">
-        <f>SUM(C31:C66)</f>
-        <v>-1685000</v>
+        <f>C276+C355</f>
+        <v>1540693</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="120" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C69" s="3">
-        <f>C260+C308</f>
-        <v>1269623</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="3">
-        <f>C67+C68-C69</f>
-        <v>615599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+        <f>C66+C67-C68</f>
+        <v>481533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" s="74"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="76"/>
+    </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="73" t="s">
-        <v>336</v>
-      </c>
-      <c r="B74" s="74"/>
-      <c r="C74" s="104"/>
-      <c r="D74" s="76"/>
+      <c r="A74" s="105" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74" s="79">
+        <f>C87</f>
+        <v>700000</v>
+      </c>
+      <c r="D74" s="80"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="105" t="s">
-        <v>341</v>
-      </c>
+      <c r="A75" s="85"/>
       <c r="B75" s="78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C75" s="79">
-        <f>C88</f>
-        <v>700000</v>
+        <f>D139</f>
+        <v>789000</v>
       </c>
       <c r="D75" s="80"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="85"/>
       <c r="B76" s="78" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C76" s="79">
-        <f>D133</f>
-        <v>789000</v>
+        <f>D168</f>
+        <v>1866000</v>
       </c>
       <c r="D76" s="80"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="85"/>
       <c r="B77" s="78" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C77" s="79">
-        <f>D162</f>
-        <v>1866000</v>
+        <f>D180</f>
+        <v>350000</v>
       </c>
       <c r="D77" s="80"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="85"/>
       <c r="B78" s="78" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C78" s="79">
-        <f>D174</f>
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="D78" s="80"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="85"/>
+      <c r="A79" s="105" t="s">
+        <v>342</v>
+      </c>
       <c r="B79" s="78" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C79" s="79">
-        <v>200000</v>
-      </c>
-      <c r="D79" s="80"/>
+        <f>-C135</f>
+        <v>-856315</v>
+      </c>
+      <c r="D79" s="80">
+        <f>C74+C79</f>
+        <v>-156315</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="105" t="s">
-        <v>342</v>
-      </c>
+      <c r="A80" s="105"/>
       <c r="B80" s="78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C80" s="79">
-        <f>-C129</f>
-        <v>-356193</v>
+        <f>-C164</f>
+        <v>-701920</v>
       </c>
       <c r="D80" s="80">
         <f>C75+C80</f>
-        <v>343807</v>
+        <v>87080</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="105"/>
       <c r="B81" s="78" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C81" s="79">
-        <f>-C158</f>
-        <v>-824150</v>
+        <f>-C176</f>
+        <v>-1842742</v>
       </c>
       <c r="D81" s="80">
         <f>C76+C81</f>
-        <v>-35150</v>
+        <v>23258</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="105"/>
       <c r="B82" s="78" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C82" s="79">
-        <f>-C170</f>
-        <v>-1868519</v>
+        <f>-C193</f>
+        <v>-200000</v>
       </c>
       <c r="D82" s="80">
         <f>C77+C82</f>
-        <v>-2519</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="105"/>
       <c r="B83" s="78" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C83" s="79">
-        <f>-C187</f>
-        <v>-161000</v>
+        <f>-C219</f>
+        <v>-122300</v>
       </c>
       <c r="D83" s="80">
         <f>C78+C83</f>
-        <v>189000</v>
+        <v>77700</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="105"/>
+      <c r="A84" s="85"/>
       <c r="B84" s="78" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="C84" s="79">
-        <f>-C213</f>
-        <v>-99800</v>
+        <f>-C239</f>
+        <v>-502083</v>
       </c>
       <c r="D84" s="80">
-        <f>C79+C84</f>
-        <v>100200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="85"/>
-      <c r="B85" s="78" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="79">
-        <f>-C223</f>
-        <v>-52053</v>
-      </c>
-      <c r="D85" s="80">
-        <f>C85</f>
-        <v>-52053</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="112" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="108"/>
-      <c r="B86" s="109" t="s">
+        <f>C84</f>
+        <v>-502083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="112" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="108"/>
+      <c r="B85" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="C86" s="110">
-        <f>SUM(C75:C85)</f>
-        <v>543285</v>
-      </c>
-      <c r="D86" s="111">
-        <f>SUM(D80:D85)</f>
-        <v>543285</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="106"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="96"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="73" t="s">
+      <c r="C85" s="110">
+        <f>SUM(C74:C84)</f>
+        <v>-320360</v>
+      </c>
+      <c r="D85" s="111">
+        <f>SUM(D79:D84)</f>
+        <v>-320360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="106"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="96"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="75">
+      <c r="B87" s="74"/>
+      <c r="C87" s="75">
         <v>700000</v>
       </c>
-      <c r="D88" s="76"/>
+      <c r="D87" s="76"/>
+    </row>
+    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="77">
+        <v>44835</v>
+      </c>
+      <c r="B88" s="78" t="s">
+        <v>802</v>
+      </c>
+      <c r="C88" s="79">
+        <v>4300</v>
+      </c>
+      <c r="D88" s="80"/>
+      <c r="E88"/>
     </row>
     <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="77">
@@ -30756,20 +31066,20 @@
         <v>803</v>
       </c>
       <c r="C89" s="79">
-        <v>4300</v>
+        <v>26300</v>
       </c>
       <c r="D89" s="80"/>
       <c r="E89"/>
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="77">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B90" s="78" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C90" s="79">
-        <v>26300</v>
+        <v>28460</v>
       </c>
       <c r="D90" s="80"/>
       <c r="E90"/>
@@ -30779,10 +31089,10 @@
         <v>44836</v>
       </c>
       <c r="B91" s="78" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C91" s="79">
-        <v>28460</v>
+        <v>8790</v>
       </c>
       <c r="D91" s="80"/>
       <c r="E91"/>
@@ -30795,7 +31105,7 @@
         <v>807</v>
       </c>
       <c r="C92" s="79">
-        <v>8790</v>
+        <v>4600</v>
       </c>
       <c r="D92" s="80"/>
       <c r="E92"/>
@@ -30805,62 +31115,62 @@
         <v>44836</v>
       </c>
       <c r="B93" s="78" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C93" s="79">
-        <v>4600</v>
+        <v>36700</v>
       </c>
       <c r="D93" s="80"/>
       <c r="E93"/>
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="77">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B94" s="78" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C94" s="79">
-        <v>36700</v>
+        <v>36223</v>
       </c>
       <c r="D94" s="80"/>
       <c r="E94"/>
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="77">
+      <c r="A95" s="2">
         <v>44837</v>
       </c>
-      <c r="B95" s="78" t="s">
-        <v>811</v>
-      </c>
-      <c r="C95" s="79">
-        <v>36223</v>
+      <c r="B95" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C95" s="3">
+        <v>5800</v>
       </c>
       <c r="D95" s="80"/>
       <c r="E95"/>
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>44837</v>
+        <v>44839</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C96" s="3">
-        <v>5800</v>
+        <v>40500</v>
       </c>
       <c r="D96" s="80"/>
       <c r="E96"/>
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C97" s="3">
-        <v>40500</v>
+        <v>23100</v>
       </c>
       <c r="D97" s="80"/>
       <c r="E97"/>
@@ -30870,62 +31180,62 @@
         <v>44840</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C98" s="3">
-        <v>23100</v>
+        <v>11960</v>
       </c>
       <c r="D98" s="80"/>
       <c r="E98"/>
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>44840</v>
+        <v>44842</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C99" s="3">
-        <v>11960</v>
+        <v>30000</v>
       </c>
       <c r="D99" s="80"/>
       <c r="E99"/>
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>44842</v>
+        <v>44840</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C100" s="3">
-        <v>30000</v>
+        <v>4850</v>
       </c>
       <c r="D100" s="80"/>
       <c r="E100"/>
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>44840</v>
-      </c>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="77">
+        <v>44843</v>
+      </c>
+      <c r="B101" s="78" t="s">
         <v>828</v>
       </c>
-      <c r="C101" s="3">
-        <v>4850</v>
+      <c r="C101" s="79">
+        <v>13100</v>
       </c>
       <c r="D101" s="80"/>
       <c r="E101"/>
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="77">
-        <v>44843</v>
-      </c>
-      <c r="B102" s="78" t="s">
-        <v>830</v>
-      </c>
-      <c r="C102" s="79">
-        <v>13100</v>
+      <c r="A102" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C102" s="3">
+        <v>5680</v>
       </c>
       <c r="D102" s="80"/>
       <c r="E102"/>
@@ -30935,23 +31245,23 @@
         <v>44841</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C103" s="3">
-        <v>5680</v>
+        <v>34640</v>
       </c>
       <c r="D103" s="80"/>
       <c r="E103"/>
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>44841</v>
+        <v>44845</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C104" s="3">
-        <v>34640</v>
+        <v>7100</v>
       </c>
       <c r="D104" s="80"/>
       <c r="E104"/>
@@ -30961,451 +31271,594 @@
         <v>44845</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C105" s="3">
-        <v>7100</v>
+        <v>26590</v>
       </c>
       <c r="D105" s="80"/>
       <c r="E105"/>
     </row>
     <row r="106" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>44845</v>
+        <v>44839</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C106" s="3">
-        <v>26590</v>
+        <v>7500</v>
       </c>
       <c r="D106" s="80"/>
       <c r="E106"/>
     </row>
     <row r="107" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>44839</v>
+        <v>44848</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C107" s="3">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="D107" s="80"/>
       <c r="E107"/>
     </row>
     <row r="108" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="10"/>
+      <c r="A108" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C108" s="3">
+        <v>2650</v>
+      </c>
       <c r="D108" s="80"/>
       <c r="E108"/>
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="10"/>
+      <c r="A109" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="C109" s="3">
+        <v>29800</v>
+      </c>
       <c r="D109" s="80"/>
       <c r="E109"/>
     </row>
     <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="10"/>
+      <c r="A110" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C110" s="3">
+        <v>26740</v>
+      </c>
       <c r="D110" s="80"/>
       <c r="E110"/>
     </row>
     <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="10"/>
+      <c r="A111" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C111" s="3">
+        <v>5200</v>
+      </c>
       <c r="D111" s="80"/>
       <c r="E111"/>
     </row>
     <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="10"/>
+      <c r="A112" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C112" s="3">
+        <v>12500</v>
+      </c>
       <c r="D112" s="80"/>
       <c r="E112"/>
     </row>
     <row r="113" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="10"/>
+      <c r="A113" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2500</v>
+      </c>
       <c r="D113" s="80"/>
       <c r="E113"/>
     </row>
     <row r="114" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="10"/>
+      <c r="A114" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C114" s="3">
+        <v>24400</v>
+      </c>
       <c r="D114" s="80"/>
       <c r="E114"/>
     </row>
     <row r="115" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="10"/>
+      <c r="A115" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C115" s="3">
+        <v>9800</v>
+      </c>
       <c r="D115" s="80"/>
       <c r="E115"/>
     </row>
     <row r="116" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="10"/>
+      <c r="A116" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="C116" s="3">
+        <v>28300</v>
+      </c>
       <c r="D116" s="80"/>
       <c r="E116"/>
     </row>
     <row r="117" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="10"/>
+      <c r="A117" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="C117" s="3">
+        <v>30000</v>
+      </c>
       <c r="D117" s="80"/>
       <c r="E117"/>
     </row>
     <row r="118" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="10"/>
+      <c r="A118" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="C118" s="3">
+        <v>8600</v>
+      </c>
       <c r="D118" s="80"/>
       <c r="E118"/>
     </row>
     <row r="119" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="10"/>
+      <c r="A119" s="2">
+        <v>44858</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C119" s="3">
+        <v>33620</v>
+      </c>
       <c r="D119" s="80"/>
       <c r="E119"/>
     </row>
     <row r="120" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="10"/>
+      <c r="A120" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="C120" s="3">
+        <v>25300</v>
+      </c>
       <c r="D120" s="80"/>
       <c r="E120"/>
     </row>
     <row r="121" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="10"/>
+      <c r="A121" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="C121" s="3">
+        <v>15500</v>
+      </c>
       <c r="D121" s="80"/>
       <c r="E121"/>
     </row>
     <row r="122" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="10"/>
+      <c r="A122" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3000</v>
+      </c>
       <c r="D122" s="80"/>
       <c r="E122"/>
     </row>
     <row r="123" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="10"/>
+      <c r="A123" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C123" s="3">
+        <v>10650</v>
+      </c>
       <c r="D123" s="80"/>
       <c r="E123"/>
     </row>
     <row r="124" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="C124" s="3">
+        <v>191682</v>
+      </c>
       <c r="D124" s="80"/>
       <c r="E124"/>
     </row>
     <row r="125" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="77"/>
-      <c r="B125" s="78"/>
-      <c r="C125" s="79"/>
+      <c r="A125" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="C125" s="3">
+        <v>2400</v>
+      </c>
       <c r="D125" s="80"/>
       <c r="E125"/>
     </row>
     <row r="126" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="77"/>
-      <c r="B126" s="78"/>
-      <c r="C126" s="79"/>
+      <c r="A126" s="77">
+        <v>44861</v>
+      </c>
+      <c r="B126" s="78" t="s">
+        <v>899</v>
+      </c>
+      <c r="C126" s="79">
+        <v>3080</v>
+      </c>
       <c r="D126" s="80"/>
       <c r="E126"/>
     </row>
     <row r="127" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="77"/>
-      <c r="B127" s="78"/>
-      <c r="C127" s="79"/>
+      <c r="A127" s="2">
+        <v>44861</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="C127" s="3">
+        <v>27600</v>
+      </c>
       <c r="D127" s="80"/>
       <c r="E127"/>
     </row>
     <row r="128" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="77"/>
-      <c r="B128" s="84"/>
+      <c r="B128" s="78"/>
       <c r="C128" s="79"/>
       <c r="D128" s="80"/>
       <c r="E128"/>
     </row>
     <row r="129" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="85"/>
-      <c r="B129" s="84"/>
-      <c r="C129" s="79">
-        <f>SUM(C89:C128)</f>
-        <v>356193</v>
-      </c>
+      <c r="A129" s="77"/>
+      <c r="B129" s="78"/>
+      <c r="C129" s="79"/>
       <c r="D129" s="80"/>
       <c r="E129"/>
     </row>
     <row r="130" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="85"/>
-      <c r="B130" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="C130" s="79">
-        <f>C88-C129</f>
-        <v>343807</v>
-      </c>
+      <c r="A130" s="77"/>
+      <c r="B130" s="78"/>
+      <c r="C130" s="79"/>
       <c r="D130" s="80"/>
       <c r="E130"/>
     </row>
     <row r="131" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="85"/>
-      <c r="B131" s="84"/>
+      <c r="A131" s="77"/>
+      <c r="B131" s="78"/>
       <c r="C131" s="79"/>
       <c r="D131" s="80"/>
       <c r="E131"/>
     </row>
     <row r="132" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="85"/>
-      <c r="B132" s="84"/>
+      <c r="A132" s="77"/>
+      <c r="B132" s="78"/>
       <c r="C132" s="79"/>
       <c r="D132" s="80"/>
       <c r="E132"/>
     </row>
     <row r="133" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="86" t="s">
+      <c r="A133" s="77"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="80"/>
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="77"/>
+      <c r="B134" s="84"/>
+      <c r="C134" s="79"/>
+      <c r="D134" s="80"/>
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="85"/>
+      <c r="B135" s="84"/>
+      <c r="C135" s="79">
+        <f>SUM(C88:C134)</f>
+        <v>856315</v>
+      </c>
+      <c r="D135" s="80"/>
+      <c r="E135"/>
+    </row>
+    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="85"/>
+      <c r="B136" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C136" s="79">
+        <f>C87-C135</f>
+        <v>-156315</v>
+      </c>
+      <c r="D136" s="80"/>
+      <c r="E136"/>
+    </row>
+    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="85"/>
+      <c r="B137" s="84"/>
+      <c r="C137" s="79"/>
+      <c r="D137" s="80"/>
+      <c r="E137"/>
+    </row>
+    <row r="138" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="85"/>
+      <c r="B138" s="84"/>
+      <c r="C138" s="79"/>
+      <c r="D138" s="80"/>
+      <c r="E138"/>
+    </row>
+    <row r="139" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="B133" s="84"/>
-      <c r="C133" s="87">
-        <f>D133</f>
+      <c r="B139" s="84"/>
+      <c r="C139" s="87">
+        <f>D139</f>
         <v>789000</v>
       </c>
-      <c r="D133" s="80">
-        <f>SUM(D134:D157)</f>
+      <c r="D139" s="80">
+        <f>SUM(D140:D163)</f>
         <v>789000</v>
       </c>
-      <c r="E133"/>
-    </row>
-    <row r="134" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="88">
+      <c r="E139"/>
+    </row>
+    <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="88">
         <v>44806</v>
       </c>
-      <c r="B134" s="78" t="s">
+      <c r="B140" s="78" t="s">
         <v>483</v>
       </c>
-      <c r="C134" s="79">
+      <c r="C140" s="79">
         <v>40000</v>
       </c>
-      <c r="D134" s="80">
+      <c r="D140" s="80">
         <v>40000</v>
       </c>
-      <c r="E134"/>
-    </row>
-    <row r="135" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="88"/>
-      <c r="B135" s="84" t="s">
+      <c r="E140"/>
+    </row>
+    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="88"/>
+      <c r="B141" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C135" s="79">
+      <c r="C141" s="79">
         <v>17810</v>
       </c>
-      <c r="D135" s="80">
+      <c r="D141" s="80">
         <v>18000</v>
-      </c>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="77"/>
-      <c r="B136" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C136" s="79">
-        <v>20680</v>
-      </c>
-      <c r="D136" s="80">
-        <v>22000</v>
-      </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="77"/>
-      <c r="B137" s="78" t="s">
-        <v>271</v>
-      </c>
-      <c r="C137" s="79">
-        <v>12800</v>
-      </c>
-      <c r="D137" s="80">
-        <v>15000</v>
-      </c>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="77"/>
-      <c r="B138" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C138" s="79">
-        <v>6260</v>
-      </c>
-      <c r="D138" s="80">
-        <v>15000</v>
-      </c>
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="77"/>
-      <c r="B139" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="79">
-        <v>10000</v>
-      </c>
-      <c r="D139" s="80">
-        <v>10000</v>
-      </c>
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="77"/>
-      <c r="B140" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="C140" s="79">
-        <v>30000</v>
-      </c>
-      <c r="D140" s="80">
-        <v>30000</v>
-      </c>
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="77"/>
-      <c r="B141" s="78" t="s">
-        <v>354</v>
-      </c>
-      <c r="C141" s="79">
-        <v>55650</v>
-      </c>
-      <c r="D141" s="80">
-        <v>60000</v>
       </c>
       <c r="E141"/>
     </row>
     <row r="142" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="77"/>
-      <c r="B142" s="84" t="s">
-        <v>25</v>
+      <c r="B142" s="78" t="s">
+        <v>37</v>
       </c>
       <c r="C142" s="79">
-        <v>199000</v>
+        <v>20680</v>
       </c>
       <c r="D142" s="80">
-        <v>199000</v>
+        <v>22000</v>
       </c>
       <c r="E142"/>
     </row>
     <row r="143" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="77"/>
-      <c r="B143" s="84" t="s">
-        <v>87</v>
+      <c r="B143" s="78" t="s">
+        <v>271</v>
       </c>
       <c r="C143" s="79">
-        <v>121990</v>
+        <v>12800</v>
       </c>
       <c r="D143" s="80">
-        <v>130000</v>
+        <v>15000</v>
       </c>
       <c r="E143"/>
     </row>
     <row r="144" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="77"/>
       <c r="B144" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" s="79">
+        <v>6260</v>
+      </c>
+      <c r="D144" s="80">
+        <v>15000</v>
+      </c>
+      <c r="E144"/>
+    </row>
+    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="77"/>
+      <c r="B145" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="79">
+        <v>10000</v>
+      </c>
+      <c r="D145" s="80">
+        <v>10000</v>
+      </c>
+      <c r="E145"/>
+    </row>
+    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="77"/>
+      <c r="B146" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" s="79">
+        <v>30000</v>
+      </c>
+      <c r="D146" s="80">
+        <v>30000</v>
+      </c>
+      <c r="E146"/>
+    </row>
+    <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="77"/>
+      <c r="B147" s="78" t="s">
+        <v>354</v>
+      </c>
+      <c r="C147" s="79">
+        <v>55650</v>
+      </c>
+      <c r="D147" s="80">
+        <v>60000</v>
+      </c>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="77"/>
+      <c r="B148" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="79">
+        <v>199000</v>
+      </c>
+      <c r="D148" s="80">
+        <v>199000</v>
+      </c>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="77"/>
+      <c r="B149" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="79">
+        <v>121990</v>
+      </c>
+      <c r="D149" s="80">
+        <v>130000</v>
+      </c>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="77"/>
+      <c r="B150" s="78" t="s">
         <v>703</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C150" s="3">
+        <v>127770</v>
+      </c>
+      <c r="D150" s="80">
         <v>250000</v>
       </c>
-      <c r="D144" s="80">
-        <v>250000</v>
-      </c>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="77">
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="77">
         <v>44837</v>
       </c>
-      <c r="B145" s="78" t="s">
-        <v>812</v>
-      </c>
-      <c r="C145" s="79">
+      <c r="B151" s="78" t="s">
+        <v>811</v>
+      </c>
+      <c r="C151" s="79">
         <v>46060</v>
       </c>
-      <c r="D145" s="80"/>
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2">
+      <c r="D151" s="80"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
         <v>44840</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="C146" s="3">
+      <c r="B152" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C152" s="3">
         <v>1000</v>
       </c>
-      <c r="D146" s="80"/>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2">
+      <c r="D152" s="80"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
         <v>44845</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>836</v>
-      </c>
-      <c r="C147" s="3">
+      <c r="B153" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="C153" s="3">
         <v>2000</v>
       </c>
-      <c r="D147" s="80"/>
-      <c r="E147" s="10"/>
-    </row>
-    <row r="148" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2">
-        <v>44844</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C148" s="3">
-        <v>10900</v>
-      </c>
-      <c r="D148" s="80"/>
-      <c r="E148" s="10"/>
-    </row>
-    <row r="149" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
-      <c r="B149" s="10"/>
-      <c r="D149" s="80"/>
-      <c r="E149" s="10"/>
-    </row>
-    <row r="150" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
-      <c r="B150" s="10"/>
-      <c r="D150" s="80"/>
-      <c r="E150" s="10"/>
-    </row>
-    <row r="151" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
-      <c r="B151" s="10"/>
-      <c r="D151" s="80"/>
-      <c r="E151" s="10"/>
-    </row>
-    <row r="152" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2"/>
-      <c r="B152" s="10"/>
-      <c r="D152" s="80"/>
-      <c r="E152" s="10"/>
-    </row>
-    <row r="153" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
-      <c r="B153" s="10"/>
       <c r="D153" s="80"/>
       <c r="E153" s="10"/>
     </row>
     <row r="154" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
-      <c r="B154" s="10"/>
+      <c r="A154" s="2">
+        <v>44844</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="C154" s="3">
+        <v>10900</v>
+      </c>
       <c r="D154" s="80"/>
       <c r="E154" s="10"/>
     </row>
@@ -31422,696 +31875,660 @@
       <c r="E156" s="10"/>
     </row>
     <row r="157" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="77"/>
-      <c r="B157" s="78"/>
-      <c r="C157" s="79"/>
+      <c r="A157" s="2"/>
+      <c r="B157" s="10"/>
       <c r="D157" s="80"/>
       <c r="E157" s="10"/>
     </row>
     <row r="158" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="85"/>
-      <c r="B158" s="84"/>
-      <c r="C158" s="79">
-        <f>SUM(C134:C157)</f>
-        <v>824150</v>
-      </c>
+      <c r="A158" s="2"/>
+      <c r="B158" s="10"/>
       <c r="D158" s="80"/>
-      <c r="E158"/>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="85"/>
-      <c r="B159" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="C159" s="79">
-        <f>C133-C158</f>
-        <v>-35150</v>
-      </c>
+      <c r="A159" s="2"/>
+      <c r="B159" s="10"/>
       <c r="D159" s="80"/>
-      <c r="E159"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="85"/>
-      <c r="B160" s="84"/>
-      <c r="C160" s="79"/>
+      <c r="A160" s="2"/>
+      <c r="B160" s="10"/>
       <c r="D160" s="80"/>
-      <c r="E160"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="85"/>
-      <c r="B161" s="84"/>
-      <c r="C161" s="79"/>
+      <c r="A161" s="2"/>
+      <c r="B161" s="10"/>
       <c r="D161" s="80"/>
-      <c r="E161"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="86" t="s">
-        <v>327</v>
-      </c>
-      <c r="B162" s="84"/>
-      <c r="C162" s="87">
-        <f>D162</f>
-        <v>1866000</v>
-      </c>
-      <c r="D162" s="89">
-        <f>SUM(D163:D168)</f>
-        <v>1866000</v>
-      </c>
-      <c r="E162"/>
+      <c r="A162" s="2"/>
+      <c r="B162" s="10"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="77"/>
-      <c r="B163" s="115" t="s">
-        <v>797</v>
-      </c>
-      <c r="C163" s="116">
-        <v>217000</v>
-      </c>
-      <c r="D163" s="80">
-        <v>210000</v>
-      </c>
-      <c r="E163"/>
+      <c r="B163" s="78"/>
+      <c r="C163" s="79"/>
+      <c r="D163" s="80"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="77"/>
-      <c r="B164" s="115" t="s">
-        <v>756</v>
-      </c>
-      <c r="C164" s="116">
-        <v>410000</v>
-      </c>
-      <c r="D164" s="80">
-        <v>410000</v>
-      </c>
+      <c r="A164" s="85"/>
+      <c r="B164" s="84"/>
+      <c r="C164" s="79">
+        <f>SUM(C140:C163)</f>
+        <v>701920</v>
+      </c>
+      <c r="D164" s="80"/>
       <c r="E164"/>
     </row>
     <row r="165" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="77"/>
-      <c r="B165" s="115" t="s">
-        <v>315</v>
-      </c>
-      <c r="C165" s="116">
-        <v>1050000</v>
-      </c>
-      <c r="D165" s="80">
-        <v>1050000</v>
-      </c>
+      <c r="A165" s="85"/>
+      <c r="B165" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C165" s="79">
+        <f>C139-C164</f>
+        <v>87080</v>
+      </c>
+      <c r="D165" s="80"/>
       <c r="E165"/>
     </row>
     <row r="166" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="88"/>
-      <c r="B166" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C166" s="79">
-        <v>65519</v>
-      </c>
-      <c r="D166" s="80">
-        <v>70000</v>
-      </c>
+      <c r="A166" s="85"/>
+      <c r="B166" s="84"/>
+      <c r="C166" s="79"/>
+      <c r="D166" s="80"/>
       <c r="E166"/>
     </row>
     <row r="167" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="88"/>
-      <c r="B167" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C167" s="79">
-        <v>63000</v>
-      </c>
-      <c r="D167" s="80">
-        <v>63000</v>
-      </c>
+      <c r="A167" s="85"/>
+      <c r="B167" s="84"/>
+      <c r="C167" s="79"/>
+      <c r="D167" s="80"/>
       <c r="E167"/>
     </row>
     <row r="168" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="88"/>
-      <c r="B168" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="C168" s="79">
-        <v>63000</v>
-      </c>
-      <c r="D168" s="80">
-        <v>63000</v>
+      <c r="A168" s="86" t="s">
+        <v>327</v>
+      </c>
+      <c r="B168" s="84"/>
+      <c r="C168" s="87">
+        <f>D168</f>
+        <v>1866000</v>
+      </c>
+      <c r="D168" s="89">
+        <f>SUM(D169:D174)</f>
+        <v>1866000</v>
       </c>
       <c r="E168"/>
     </row>
     <row r="169" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="77"/>
-      <c r="B169" s="78"/>
-      <c r="C169" s="79"/>
-      <c r="D169" s="80"/>
+      <c r="B169" s="123" t="s">
+        <v>895</v>
+      </c>
+      <c r="C169" s="124">
+        <v>217000</v>
+      </c>
+      <c r="D169" s="80">
+        <v>210000</v>
+      </c>
       <c r="E169"/>
     </row>
     <row r="170" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="85"/>
-      <c r="B170" s="84"/>
-      <c r="C170" s="79">
-        <f>SUM(C163:C169)</f>
-        <v>1868519</v>
-      </c>
-      <c r="D170" s="80"/>
+      <c r="A170" s="77"/>
+      <c r="B170" s="123" t="s">
+        <v>894</v>
+      </c>
+      <c r="C170" s="124">
+        <v>382806</v>
+      </c>
+      <c r="D170" s="80">
+        <v>410000</v>
+      </c>
       <c r="E170"/>
     </row>
     <row r="171" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="85"/>
-      <c r="B171" s="78" t="s">
+      <c r="A171" s="77"/>
+      <c r="B171" s="123" t="s">
+        <v>896</v>
+      </c>
+      <c r="C171" s="124">
+        <v>1061943</v>
+      </c>
+      <c r="D171" s="80">
+        <v>1050000</v>
+      </c>
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="88"/>
+      <c r="B172" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C172" s="79">
+        <v>65519</v>
+      </c>
+      <c r="D172" s="80">
+        <v>70000</v>
+      </c>
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="88"/>
+      <c r="B173" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C173" s="79">
+        <v>57390</v>
+      </c>
+      <c r="D173" s="80">
+        <v>63000</v>
+      </c>
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="88"/>
+      <c r="B174" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C174" s="79">
+        <v>58084</v>
+      </c>
+      <c r="D174" s="80">
+        <v>63000</v>
+      </c>
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="77"/>
+      <c r="B175" s="78"/>
+      <c r="C175" s="79"/>
+      <c r="D175" s="80"/>
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="85"/>
+      <c r="B176" s="84"/>
+      <c r="C176" s="79">
+        <f>SUM(C169:C175)</f>
+        <v>1842742</v>
+      </c>
+      <c r="D176" s="80"/>
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="85"/>
+      <c r="B177" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="C171" s="79">
-        <f>C162-C170</f>
-        <v>-2519</v>
-      </c>
-      <c r="D171" s="80"/>
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="85"/>
-      <c r="B172" s="84"/>
-      <c r="C172" s="79"/>
-      <c r="D172" s="80"/>
-      <c r="E172"/>
-    </row>
-    <row r="173" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="85"/>
-      <c r="B173" s="84"/>
-      <c r="C173" s="79"/>
-      <c r="D173" s="80"/>
-      <c r="E173"/>
-    </row>
-    <row r="174" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="86" t="s">
+      <c r="C177" s="79">
+        <f>C168-C176</f>
+        <v>23258</v>
+      </c>
+      <c r="D177" s="80"/>
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="85"/>
+      <c r="B178" s="84"/>
+      <c r="C178" s="79"/>
+      <c r="D178" s="80"/>
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="85"/>
+      <c r="B179" s="84"/>
+      <c r="C179" s="79"/>
+      <c r="D179" s="80"/>
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="B174" s="84"/>
-      <c r="C174" s="87">
-        <f>D174</f>
+      <c r="B180" s="84"/>
+      <c r="C180" s="87">
+        <f>D180</f>
         <v>350000</v>
       </c>
-      <c r="D174" s="89">
-        <f>SUM(D175:D186)</f>
+      <c r="D180" s="89">
+        <f>SUM(D181:D192)</f>
         <v>350000</v>
       </c>
-      <c r="E174"/>
-    </row>
-    <row r="175" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="77">
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="77">
         <v>44805</v>
       </c>
-      <c r="B175" s="78" t="s">
+      <c r="B181" s="78" t="s">
         <v>599</v>
       </c>
-      <c r="C175" s="79">
+      <c r="C181" s="79">
         <v>60000</v>
       </c>
-      <c r="D175" s="80">
+      <c r="D181" s="80">
         <v>70000</v>
-      </c>
-      <c r="E175"/>
-    </row>
-    <row r="176" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="77"/>
-      <c r="B176" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="C176" s="79">
-        <v>150000</v>
-      </c>
-      <c r="D176" s="80">
-        <v>150000</v>
-      </c>
-      <c r="E176"/>
-    </row>
-    <row r="177" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="77"/>
-      <c r="B177" s="84" t="s">
-        <v>56</v>
-      </c>
-      <c r="C177" s="79">
-        <v>140000</v>
-      </c>
-      <c r="D177" s="80">
-        <v>140000</v>
-      </c>
-      <c r="E177"/>
-    </row>
-    <row r="178" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="77"/>
-      <c r="B178" s="78" t="s">
-        <v>480</v>
-      </c>
-      <c r="C178" s="79">
-        <v>105000</v>
-      </c>
-      <c r="D178" s="80">
-        <v>140000</v>
-      </c>
-      <c r="E178"/>
-    </row>
-    <row r="179" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="77"/>
-      <c r="B179" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C179" s="79">
-        <v>140000</v>
-      </c>
-      <c r="D179" s="80">
-        <v>140000</v>
-      </c>
-      <c r="E179"/>
-    </row>
-    <row r="180" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="77"/>
-      <c r="B180" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="C180" s="79">
-        <v>60000</v>
-      </c>
-      <c r="D180" s="80">
-        <v>204000</v>
-      </c>
-      <c r="E180"/>
-    </row>
-    <row r="181" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="77"/>
-      <c r="B181" s="97" t="s">
-        <v>711</v>
-      </c>
-      <c r="C181" s="79">
-        <v>110000</v>
-      </c>
-      <c r="D181" s="80">
-        <v>110000</v>
       </c>
       <c r="E181"/>
     </row>
     <row r="182" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="77"/>
-      <c r="B182" s="97" t="s">
-        <v>712</v>
-      </c>
-      <c r="C182" s="79">
-        <v>50000</v>
-      </c>
-      <c r="D182" s="80">
-        <v>50000</v>
-      </c>
-      <c r="E182"/>
+      <c r="B182" s="123" t="s">
+        <v>886</v>
+      </c>
+      <c r="C182" s="79"/>
+      <c r="D182" s="80"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="77"/>
-      <c r="B183" s="97"/>
+      <c r="B183" s="84" t="s">
+        <v>56</v>
+      </c>
       <c r="C183" s="79">
-        <v>-654000</v>
+        <v>140000</v>
       </c>
       <c r="D183" s="80">
-        <v>-654000</v>
+        <v>140000</v>
       </c>
       <c r="E183"/>
     </row>
     <row r="184" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="77"/>
-      <c r="B184" s="97"/>
+      <c r="B184" s="123" t="s">
+        <v>891</v>
+      </c>
       <c r="C184" s="79"/>
-      <c r="D184" s="80"/>
-      <c r="E184"/>
+      <c r="D184" s="80">
+        <v>140000</v>
+      </c>
+      <c r="E184" s="10"/>
     </row>
     <row r="185" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="77"/>
-      <c r="B185" s="97"/>
+      <c r="B185" s="123" t="s">
+        <v>888</v>
+      </c>
       <c r="C185" s="79"/>
       <c r="D185" s="80"/>
-      <c r="E185"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="77"/>
-      <c r="B186" s="78"/>
+      <c r="B186" s="123" t="s">
+        <v>889</v>
+      </c>
       <c r="C186" s="79"/>
       <c r="D186" s="80"/>
-      <c r="E186"/>
+      <c r="E186" s="10"/>
     </row>
     <row r="187" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="85"/>
-      <c r="B187" s="84"/>
-      <c r="C187" s="79">
-        <f>SUM(C175:C186)</f>
-        <v>161000</v>
-      </c>
+      <c r="A187" s="77"/>
+      <c r="B187" s="123" t="s">
+        <v>890</v>
+      </c>
+      <c r="C187" s="79"/>
       <c r="D187" s="80"/>
-      <c r="E187"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="85"/>
-      <c r="B188" s="84"/>
-      <c r="C188" s="79">
-        <f>C174-C187</f>
-        <v>189000</v>
-      </c>
+      <c r="A188" s="77"/>
+      <c r="B188" s="97" t="s">
+        <v>712</v>
+      </c>
+      <c r="C188" s="79"/>
       <c r="D188" s="80"/>
       <c r="E188"/>
     </row>
     <row r="189" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="85"/>
-      <c r="B189" s="84"/>
+      <c r="A189" s="77"/>
+      <c r="B189" s="97"/>
       <c r="C189" s="79"/>
       <c r="D189" s="80"/>
       <c r="E189"/>
     </row>
     <row r="190" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="86" t="s">
-        <v>322</v>
-      </c>
-      <c r="B190" s="84"/>
-      <c r="C190" s="87">
-        <v>200000</v>
-      </c>
+      <c r="A190" s="77"/>
+      <c r="B190" s="97"/>
+      <c r="C190" s="79"/>
       <c r="D190" s="80"/>
       <c r="E190"/>
     </row>
     <row r="191" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="77">
-        <v>44835</v>
-      </c>
-      <c r="B191" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="C191" s="79">
-        <v>1300</v>
-      </c>
+      <c r="A191" s="77"/>
+      <c r="B191" s="97"/>
+      <c r="C191" s="79"/>
       <c r="D191" s="80"/>
       <c r="E191"/>
     </row>
     <row r="192" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="77">
-        <v>44835</v>
-      </c>
-      <c r="B192" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="C192" s="79">
-        <v>4200</v>
-      </c>
+      <c r="A192" s="77"/>
+      <c r="B192" s="78"/>
+      <c r="C192" s="79"/>
       <c r="D192" s="80"/>
       <c r="E192"/>
     </row>
     <row r="193" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="77">
-        <v>44835</v>
-      </c>
-      <c r="B193" s="78" t="s">
-        <v>805</v>
-      </c>
+      <c r="A193" s="85"/>
+      <c r="B193" s="84"/>
       <c r="C193" s="79">
-        <v>19000</v>
+        <f>SUM(C181:C192)</f>
+        <v>200000</v>
       </c>
       <c r="D193" s="80"/>
       <c r="E193"/>
     </row>
     <row r="194" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="77">
-        <v>44836</v>
-      </c>
-      <c r="B194" s="78" t="s">
-        <v>810</v>
-      </c>
+      <c r="A194" s="85"/>
+      <c r="B194" s="84"/>
       <c r="C194" s="79">
-        <v>21900</v>
+        <f>C180-C193</f>
+        <v>150000</v>
       </c>
       <c r="D194" s="80"/>
       <c r="E194"/>
     </row>
     <row r="195" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="77">
-        <v>44837</v>
-      </c>
-      <c r="B195" s="122" t="s">
-        <v>802</v>
-      </c>
-      <c r="C195" s="79">
-        <v>4200</v>
-      </c>
+      <c r="A195" s="85"/>
+      <c r="B195" s="84"/>
+      <c r="C195" s="79"/>
       <c r="D195" s="80"/>
       <c r="E195"/>
     </row>
     <row r="196" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="77">
-        <v>44837</v>
-      </c>
-      <c r="B196" s="78" t="s">
-        <v>802</v>
-      </c>
-      <c r="C196" s="79">
-        <v>1300</v>
+      <c r="A196" s="86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B196" s="84"/>
+      <c r="C196" s="87">
+        <v>200000</v>
       </c>
       <c r="D196" s="80"/>
       <c r="E196"/>
     </row>
     <row r="197" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="25">
-        <v>44840</v>
-      </c>
-      <c r="B197" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="C197" s="68">
-        <v>10000</v>
+      <c r="A197" s="77">
+        <v>44835</v>
+      </c>
+      <c r="B197" s="78" t="s">
+        <v>801</v>
+      </c>
+      <c r="C197" s="79">
+        <v>1300</v>
       </c>
       <c r="D197" s="80"/>
       <c r="E197"/>
     </row>
     <row r="198" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="25">
-        <v>44840</v>
-      </c>
-      <c r="B198" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="C198" s="68">
-        <v>5500</v>
+      <c r="A198" s="77">
+        <v>44835</v>
+      </c>
+      <c r="B198" s="78" t="s">
+        <v>801</v>
+      </c>
+      <c r="C198" s="79">
+        <v>4200</v>
       </c>
       <c r="D198" s="80"/>
       <c r="E198"/>
     </row>
     <row r="199" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2">
-        <v>44842</v>
-      </c>
-      <c r="B199" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="C199" s="3">
-        <v>5500</v>
+      <c r="A199" s="77">
+        <v>44835</v>
+      </c>
+      <c r="B199" s="78" t="s">
+        <v>804</v>
+      </c>
+      <c r="C199" s="79">
+        <v>19000</v>
       </c>
       <c r="D199" s="80"/>
       <c r="E199"/>
     </row>
     <row r="200" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C200" s="3">
-        <v>3300</v>
+      <c r="A200" s="77">
+        <v>44836</v>
+      </c>
+      <c r="B200" s="78" t="s">
+        <v>809</v>
+      </c>
+      <c r="C200" s="79">
+        <v>21900</v>
       </c>
       <c r="D200" s="80"/>
       <c r="E200"/>
     </row>
     <row r="201" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B201" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C201" s="3">
-        <v>1000</v>
+      <c r="A201" s="77">
+        <v>44837</v>
+      </c>
+      <c r="B201" s="122" t="s">
+        <v>801</v>
+      </c>
+      <c r="C201" s="79">
+        <v>4200</v>
       </c>
       <c r="D201" s="80"/>
       <c r="E201"/>
     </row>
     <row r="202" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="77">
-        <v>44841</v>
+        <v>44837</v>
       </c>
       <c r="B202" s="78" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="C202" s="79">
-        <v>10000</v>
+        <v>1300</v>
       </c>
       <c r="D202" s="80"/>
       <c r="E202"/>
     </row>
     <row r="203" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="77">
-        <v>44843</v>
-      </c>
-      <c r="B203" s="97" t="s">
-        <v>844</v>
-      </c>
-      <c r="C203" s="79">
-        <v>6300</v>
+      <c r="A203" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B203" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="C203" s="68">
+        <v>10000</v>
       </c>
       <c r="D203" s="80"/>
       <c r="E203"/>
     </row>
     <row r="204" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="77">
-        <v>44843</v>
-      </c>
-      <c r="B204" s="97" t="s">
-        <v>845</v>
-      </c>
-      <c r="C204" s="79">
-        <v>6300</v>
+      <c r="A204" s="25">
+        <v>44840</v>
+      </c>
+      <c r="B204" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="C204" s="68">
+        <v>5500</v>
       </c>
       <c r="D204" s="80"/>
       <c r="E204"/>
     </row>
     <row r="205" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="77"/>
-      <c r="B205" s="78"/>
-      <c r="C205" s="79"/>
+      <c r="A205" s="2">
+        <v>44842</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C205" s="3">
+        <v>5500</v>
+      </c>
       <c r="D205" s="80"/>
       <c r="E205"/>
     </row>
     <row r="206" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="77"/>
-      <c r="B206" s="78"/>
-      <c r="C206" s="79"/>
+      <c r="A206" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C206" s="3">
+        <v>3300</v>
+      </c>
       <c r="D206" s="80"/>
       <c r="E206"/>
     </row>
     <row r="207" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="77"/>
-      <c r="B207" s="78"/>
-      <c r="C207" s="79"/>
+      <c r="A207" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1000</v>
+      </c>
       <c r="D207" s="80"/>
       <c r="E207"/>
     </row>
     <row r="208" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="77"/>
-      <c r="B208" s="78"/>
-      <c r="C208" s="79"/>
+      <c r="A208" s="77">
+        <v>44841</v>
+      </c>
+      <c r="B208" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="C208" s="79">
+        <v>10000</v>
+      </c>
       <c r="D208" s="80"/>
       <c r="E208"/>
     </row>
     <row r="209" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="77"/>
-      <c r="B209" s="78"/>
-      <c r="C209" s="79"/>
+      <c r="A209" s="77">
+        <v>44843</v>
+      </c>
+      <c r="B209" s="97" t="s">
+        <v>842</v>
+      </c>
+      <c r="C209" s="79">
+        <v>6300</v>
+      </c>
       <c r="D209" s="80"/>
       <c r="E209"/>
     </row>
     <row r="210" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="77"/>
-      <c r="B210" s="78"/>
-      <c r="C210" s="79"/>
+      <c r="A210" s="77">
+        <v>44843</v>
+      </c>
+      <c r="B210" s="97" t="s">
+        <v>843</v>
+      </c>
+      <c r="C210" s="79">
+        <v>6300</v>
+      </c>
       <c r="D210" s="80"/>
       <c r="E210"/>
     </row>
     <row r="211" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="77"/>
-      <c r="B211" s="78"/>
-      <c r="C211" s="79"/>
+      <c r="A211" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="C211" s="3">
+        <v>5500</v>
+      </c>
       <c r="D211" s="80"/>
       <c r="E211"/>
     </row>
     <row r="212" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="77"/>
-      <c r="B212" s="78"/>
-      <c r="C212" s="79"/>
+      <c r="A212" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C212" s="3">
+        <v>17000</v>
+      </c>
       <c r="D212" s="80"/>
       <c r="E212"/>
     </row>
     <row r="213" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="85"/>
-      <c r="B213" s="84"/>
-      <c r="C213" s="79">
-        <f>SUM(C191:C212)</f>
-        <v>99800</v>
-      </c>
+      <c r="A213" s="77"/>
+      <c r="B213" s="78"/>
+      <c r="C213" s="79"/>
       <c r="D213" s="80"/>
       <c r="E213"/>
     </row>
     <row r="214" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="85"/>
-      <c r="B214" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="C214" s="79">
-        <f>C190-C213</f>
-        <v>100200</v>
-      </c>
+      <c r="A214" s="77"/>
+      <c r="B214" s="78"/>
+      <c r="C214" s="79"/>
       <c r="D214" s="80"/>
       <c r="E214"/>
     </row>
     <row r="215" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="85"/>
-      <c r="B215" s="84"/>
+      <c r="A215" s="77"/>
+      <c r="B215" s="78"/>
       <c r="C215" s="79"/>
       <c r="D215" s="80"/>
       <c r="E215"/>
     </row>
     <row r="216" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="85"/>
-      <c r="B216" s="84"/>
+      <c r="A216" s="77"/>
+      <c r="B216" s="78"/>
       <c r="C216" s="79"/>
       <c r="D216" s="80"/>
       <c r="E216"/>
     </row>
     <row r="217" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="85"/>
-      <c r="B217" s="84"/>
+      <c r="A217" s="77"/>
+      <c r="B217" s="78"/>
       <c r="C217" s="79"/>
       <c r="D217" s="80"/>
       <c r="E217"/>
     </row>
     <row r="218" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="86" t="s">
-        <v>340</v>
-      </c>
-      <c r="B218" s="84"/>
-      <c r="C218" s="87">
-        <v>0</v>
-      </c>
+      <c r="A218" s="77"/>
+      <c r="B218" s="78"/>
+      <c r="C218" s="79"/>
       <c r="D218" s="80"/>
       <c r="E218"/>
     </row>
     <row r="219" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="C219" s="3">
-        <v>6000</v>
+      <c r="A219" s="85"/>
+      <c r="B219" s="84"/>
+      <c r="C219" s="79">
+        <f>SUM(C197:C218)</f>
+        <v>122300</v>
       </c>
       <c r="D219" s="80"/>
       <c r="E219"/>
     </row>
     <row r="220" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="C220" s="3">
-        <v>46053</v>
+      <c r="A220" s="85"/>
+      <c r="B220" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C220" s="79">
+        <f>C196-C219</f>
+        <v>77700</v>
       </c>
       <c r="D220" s="80"/>
       <c r="E220"/>
     </row>
     <row r="221" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="77"/>
-      <c r="B221" s="78"/>
+      <c r="A221" s="85"/>
+      <c r="B221" s="84"/>
       <c r="C221" s="79"/>
       <c r="D221" s="80"/>
       <c r="E221"/>
@@ -32126,816 +32543,1036 @@
     <row r="223" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="85"/>
       <c r="B223" s="84"/>
-      <c r="C223" s="79">
-        <f>SUM(C219:C222)</f>
-        <v>52053</v>
-      </c>
+      <c r="C223" s="79"/>
       <c r="D223" s="80"/>
       <c r="E223"/>
     </row>
     <row r="224" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="85"/>
-      <c r="B224" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="C224" s="79">
-        <f>C218-C223</f>
-        <v>-52053</v>
+      <c r="A224" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="B224" s="84"/>
+      <c r="C224" s="87">
+        <v>0</v>
       </c>
       <c r="D224" s="80"/>
       <c r="E224"/>
     </row>
     <row r="225" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="85"/>
-      <c r="B225" s="78"/>
-      <c r="C225" s="79"/>
+      <c r="A225" s="2">
+        <v>44843</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="C225" s="3">
+        <v>6000</v>
+      </c>
       <c r="D225" s="80"/>
       <c r="E225"/>
     </row>
     <row r="226" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="85"/>
-      <c r="B226" s="78"/>
-      <c r="C226" s="79"/>
+      <c r="A226" s="2">
+        <v>44843</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="C226" s="3">
+        <v>46053</v>
+      </c>
       <c r="D226" s="80"/>
       <c r="E226"/>
     </row>
     <row r="227" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="85"/>
-      <c r="B227" s="78"/>
-      <c r="C227" s="79"/>
+      <c r="A227" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="C227" s="3">
+        <v>30000</v>
+      </c>
       <c r="D227" s="80"/>
       <c r="E227"/>
     </row>
     <row r="228" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="86" t="s">
-        <v>684</v>
-      </c>
-      <c r="B228" s="84"/>
-      <c r="C228" s="87"/>
+      <c r="A228" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C228" s="3">
+        <v>60130</v>
+      </c>
       <c r="D228" s="80"/>
       <c r="E228"/>
     </row>
     <row r="229" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="77"/>
-      <c r="B229" s="97" t="s">
-        <v>396</v>
-      </c>
-      <c r="C229" s="79">
-        <v>150000</v>
+      <c r="A229" s="63">
+        <v>44856</v>
+      </c>
+      <c r="B229" s="37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C229" s="68">
+        <v>125000</v>
       </c>
       <c r="D229" s="80"/>
       <c r="E229"/>
     </row>
     <row r="230" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="77"/>
-      <c r="B230" s="78" t="s">
-        <v>558</v>
-      </c>
-      <c r="C230" s="79">
-        <v>110000</v>
+      <c r="A230" s="63">
+        <v>44856</v>
+      </c>
+      <c r="B230" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="C230" s="68">
+        <v>40000</v>
       </c>
       <c r="D230" s="80"/>
       <c r="E230"/>
     </row>
     <row r="231" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="77"/>
-      <c r="B231" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C231" s="79">
-        <v>204000</v>
+      <c r="A231" s="63">
+        <v>44856</v>
+      </c>
+      <c r="B231" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="C231" s="68">
+        <v>122000</v>
       </c>
       <c r="D231" s="80"/>
       <c r="E231"/>
     </row>
     <row r="232" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="77"/>
-      <c r="B232" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C232" s="79">
-        <v>140000</v>
+      <c r="A232" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C232" s="3">
+        <v>4000</v>
       </c>
       <c r="D232" s="80"/>
       <c r="E232"/>
     </row>
     <row r="233" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="77"/>
-      <c r="B233" s="97" t="s">
-        <v>712</v>
-      </c>
-      <c r="C233" s="79">
-        <v>50000</v>
+      <c r="A233" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C233" s="3">
+        <v>2500</v>
       </c>
       <c r="D233" s="80"/>
       <c r="E233"/>
     </row>
     <row r="234" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="77"/>
-      <c r="B234" s="97"/>
-      <c r="C234" s="79"/>
+      <c r="A234" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="C234" s="3">
+        <v>2500</v>
+      </c>
       <c r="D234" s="80"/>
       <c r="E234"/>
     </row>
     <row r="235" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="85"/>
-      <c r="B235" s="84"/>
-      <c r="C235" s="79"/>
+      <c r="A235" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="C235" s="3">
+        <v>3500</v>
+      </c>
       <c r="D235" s="80"/>
       <c r="E235"/>
     </row>
     <row r="236" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="85"/>
-      <c r="B236" s="84"/>
-      <c r="C236" s="79"/>
+      <c r="A236" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="C236" s="3">
+        <v>5000</v>
+      </c>
       <c r="D236" s="80"/>
       <c r="E236"/>
     </row>
     <row r="237" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="85"/>
-      <c r="B237" s="78" t="s">
-        <v>801</v>
-      </c>
-      <c r="C237" s="79"/>
+      <c r="A237" s="2">
+        <v>44861</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="C237" s="3">
+        <v>55400</v>
+      </c>
       <c r="D237" s="80"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="85"/>
       <c r="B238" s="84"/>
       <c r="C238" s="79"/>
       <c r="D238" s="80"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E238"/>
+    </row>
+    <row r="239" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="85"/>
       <c r="B239" s="84"/>
-      <c r="C239" s="79"/>
+      <c r="C239" s="79">
+        <f>SUM(C225:C238)</f>
+        <v>502083</v>
+      </c>
       <c r="D239" s="80"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="85"/>
-      <c r="B240" s="84"/>
-      <c r="C240" s="79"/>
+      <c r="B240" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="C240" s="79">
+        <f>C224-C239</f>
+        <v>-502083</v>
+      </c>
       <c r="D240" s="80"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="86" t="s">
-        <v>388</v>
-      </c>
-      <c r="B241" s="84"/>
-      <c r="C241" s="87">
-        <v>0</v>
-      </c>
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="85"/>
+      <c r="B241" s="78"/>
+      <c r="C241" s="79"/>
       <c r="D241" s="80"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="123">
-        <v>44814</v>
-      </c>
-      <c r="B242" s="97" t="s">
-        <v>736</v>
-      </c>
-      <c r="C242" s="124">
-        <v>198020</v>
-      </c>
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="85"/>
+      <c r="B242" s="78"/>
+      <c r="C242" s="79"/>
       <c r="D242" s="80"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="77"/>
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="85"/>
       <c r="B243" s="78"/>
-      <c r="C243" s="79">
-        <v>-200000</v>
-      </c>
+      <c r="C243" s="79"/>
       <c r="D243" s="80"/>
+      <c r="E243"/>
     </row>
     <row r="244" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="77">
-        <v>44829</v>
-      </c>
-      <c r="B244" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="C244" s="79">
-        <v>3400</v>
-      </c>
+      <c r="A244" s="86" t="s">
+        <v>684</v>
+      </c>
+      <c r="B244" s="84"/>
+      <c r="C244" s="87"/>
       <c r="D244" s="80"/>
       <c r="E244"/>
     </row>
     <row r="245" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="77"/>
-      <c r="B245" s="78"/>
-      <c r="C245" s="79"/>
+      <c r="B245" s="97" t="s">
+        <v>396</v>
+      </c>
+      <c r="C245" s="79">
+        <v>150000</v>
+      </c>
       <c r="D245" s="80"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="93"/>
-      <c r="B246" s="94"/>
-      <c r="C246" s="95">
-        <f>SUM(C241:C245)</f>
-        <v>1420</v>
-      </c>
-      <c r="D246" s="96"/>
+    <row r="246" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="77"/>
+      <c r="B246" s="78" t="s">
+        <v>558</v>
+      </c>
+      <c r="C246" s="79">
+        <v>110000</v>
+      </c>
+      <c r="D246" s="80"/>
       <c r="E246"/>
     </row>
     <row r="247" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="120"/>
-      <c r="B247"/>
+      <c r="A247" s="77"/>
+      <c r="B247" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="C247" s="79">
+        <v>60000</v>
+      </c>
+      <c r="D247" s="80"/>
       <c r="E247"/>
     </row>
+    <row r="248" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="77"/>
+      <c r="B248" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C248" s="79">
+        <v>140000</v>
+      </c>
+      <c r="D248" s="80"/>
+      <c r="E248"/>
+    </row>
+    <row r="249" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="77"/>
+      <c r="B249" s="97" t="s">
+        <v>887</v>
+      </c>
+      <c r="C249" s="79">
+        <v>160000</v>
+      </c>
+      <c r="D249" s="80"/>
+      <c r="E249"/>
+    </row>
     <row r="250" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="85"/>
+      <c r="B250" s="97" t="s">
+        <v>892</v>
+      </c>
+      <c r="C250" s="79">
+        <v>20800</v>
+      </c>
+      <c r="D250" s="80"/>
+      <c r="E250"/>
+    </row>
+    <row r="251" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="85"/>
+      <c r="B251" s="84"/>
+      <c r="C251" s="79"/>
+      <c r="D251" s="80"/>
+      <c r="E251"/>
+    </row>
+    <row r="252" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="85"/>
+      <c r="B252" s="78" t="s">
+        <v>800</v>
+      </c>
+      <c r="C252" s="79">
+        <f>SUM(C245:C251)</f>
+        <v>640800</v>
+      </c>
+      <c r="D252" s="80"/>
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="85"/>
+      <c r="B253" s="97" t="s">
+        <v>893</v>
+      </c>
+      <c r="C253" s="79">
+        <v>1300000</v>
+      </c>
+      <c r="D253" s="80"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="85"/>
+      <c r="B254" s="84"/>
+      <c r="C254" s="79"/>
+      <c r="D254" s="80"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="85"/>
+      <c r="B255" s="84"/>
+      <c r="C255" s="79"/>
+      <c r="D255" s="80"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="B256" s="84"/>
+      <c r="C256" s="87">
+        <v>0</v>
+      </c>
+      <c r="D256" s="80"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C257" s="3">
+        <v>3400</v>
+      </c>
+      <c r="D257" s="80"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="C258" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D258" s="80"/>
+    </row>
+    <row r="259" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>44855</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="C259" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D259" s="80"/>
+      <c r="E259"/>
+    </row>
+    <row r="260" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="77"/>
+      <c r="B260" s="78"/>
+      <c r="C260" s="79"/>
+      <c r="D260" s="80"/>
+      <c r="E260"/>
+    </row>
+    <row r="261" spans="1:5" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="93"/>
+      <c r="B261" s="94"/>
+      <c r="C261" s="95">
+        <f>SUM(C256:C260)</f>
+        <v>24900</v>
+      </c>
+      <c r="D261" s="96"/>
+      <c r="E261"/>
+    </row>
+    <row r="262" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="120"/>
+      <c r="B262"/>
+      <c r="E262"/>
+    </row>
+    <row r="265" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B250"/>
-      <c r="E250"/>
-    </row>
-    <row r="251" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="120"/>
-      <c r="B251" s="10" t="s">
+      <c r="B265"/>
+      <c r="E265"/>
+    </row>
+    <row r="266" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="120"/>
+      <c r="B266" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C266" s="3">
         <v>300</v>
-      </c>
-      <c r="E251"/>
-    </row>
-    <row r="252" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="C252" s="3">
-        <v>46053</v>
-      </c>
-      <c r="E252"/>
-    </row>
-    <row r="253" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="32"/>
-      <c r="B253" s="31"/>
-      <c r="C253" s="33"/>
-      <c r="E253"/>
-    </row>
-    <row r="254" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="32"/>
-      <c r="B254" s="31"/>
-      <c r="C254" s="33"/>
-      <c r="E254"/>
-    </row>
-    <row r="255" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="2"/>
-      <c r="B255" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C255" s="3">
-        <v>91990</v>
-      </c>
-      <c r="E255"/>
-    </row>
-    <row r="256" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="32"/>
-      <c r="B256" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C256" s="33">
-        <v>30000</v>
-      </c>
-      <c r="E256"/>
-    </row>
-    <row r="257" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="32"/>
-      <c r="B257" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C257" s="33">
-        <v>70000</v>
-      </c>
-      <c r="E257"/>
-    </row>
-    <row r="258" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="34"/>
-      <c r="B258" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C258" s="3">
-        <v>250000</v>
-      </c>
-      <c r="E258"/>
-    </row>
-    <row r="259" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="34"/>
-      <c r="B259" s="35"/>
-      <c r="C259" s="33"/>
-      <c r="E259"/>
-    </row>
-    <row r="260" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="120"/>
-      <c r="B260"/>
-      <c r="C260" s="3">
-        <f>SUM(C251:C259)</f>
-        <v>488343</v>
-      </c>
-      <c r="E260"/>
-    </row>
-    <row r="264" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B264"/>
-      <c r="E264"/>
-    </row>
-    <row r="265" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="2">
-        <v>44840</v>
-      </c>
-      <c r="B265" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="C265" s="3">
-        <v>11960</v>
-      </c>
-      <c r="E265"/>
-    </row>
-    <row r="266" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="2">
-        <v>44841</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>831</v>
-      </c>
-      <c r="C266" s="3">
-        <v>5680</v>
       </c>
       <c r="E266"/>
     </row>
     <row r="267" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
+        <v>44843</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="C267" s="3">
+        <v>46053</v>
+      </c>
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="32">
+        <v>44851</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C268" s="3">
+        <v>91990</v>
+      </c>
+      <c r="E268"/>
+    </row>
+    <row r="269" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="32">
+        <v>44859</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C269" s="33">
+        <v>127770</v>
+      </c>
+      <c r="E269"/>
+    </row>
+    <row r="270" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="32"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="33"/>
+      <c r="E270"/>
+    </row>
+    <row r="271" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="32"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="33"/>
+      <c r="E271"/>
+    </row>
+    <row r="272" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="32"/>
+      <c r="B272" s="31"/>
+      <c r="C272" s="33"/>
+      <c r="E272"/>
+    </row>
+    <row r="273" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="32"/>
+      <c r="B273" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C273" s="33">
+        <v>30000</v>
+      </c>
+      <c r="E273"/>
+    </row>
+    <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="32"/>
+      <c r="B274" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C274" s="33">
+        <v>70000</v>
+      </c>
+      <c r="E274"/>
+    </row>
+    <row r="275" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="34"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="33"/>
+      <c r="E275"/>
+    </row>
+    <row r="276" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="120"/>
+      <c r="B276"/>
+      <c r="C276" s="3">
+        <f>SUM(C266:C275)</f>
+        <v>366113</v>
+      </c>
+      <c r="E276"/>
+    </row>
+    <row r="280" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B280"/>
+      <c r="E280"/>
+    </row>
+    <row r="281" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C281" s="3">
+        <v>11960</v>
+      </c>
+      <c r="E281"/>
+    </row>
+    <row r="282" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
         <v>44841</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B282" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="C282" s="3">
+        <v>5680</v>
+      </c>
+      <c r="E282"/>
+    </row>
+    <row r="283" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>44841</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="C283" s="3">
+        <v>34640</v>
+      </c>
+      <c r="E283"/>
+    </row>
+    <row r="284" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>44842</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C284" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E284"/>
+    </row>
+    <row r="285" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>44843</v>
+      </c>
+      <c r="B285" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="C267" s="3">
-        <v>34640</v>
-      </c>
-      <c r="E267"/>
-    </row>
-    <row r="268" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="2">
-        <v>44842</v>
-      </c>
-      <c r="B268" s="10" t="s">
+      <c r="C285" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E285"/>
+    </row>
+    <row r="286" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>44844</v>
+      </c>
+      <c r="B286" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="C268" s="3">
-        <v>5500</v>
-      </c>
-      <c r="E268"/>
-    </row>
-    <row r="269" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="2">
-        <v>44843</v>
-      </c>
-      <c r="B269" s="10" t="s">
+      <c r="D286" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E286"/>
+    </row>
+    <row r="287" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B287" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="C269" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E269"/>
-    </row>
-    <row r="270" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="2">
-        <v>44844</v>
-      </c>
-      <c r="B270" s="10" t="s">
+      <c r="C287" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E287"/>
+    </row>
+    <row r="288" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B288" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="D270" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E270"/>
-    </row>
-    <row r="271" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="2">
+      <c r="C288" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E288"/>
+    </row>
+    <row r="289" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
         <v>44845</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B289" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="C271" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E271"/>
-    </row>
-    <row r="272" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="2">
+      <c r="C289" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E289"/>
+    </row>
+    <row r="290" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
         <v>44845</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B290" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="C272" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E272"/>
-    </row>
-    <row r="273" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="2">
+      <c r="C290" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E290"/>
+    </row>
+    <row r="291" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
         <v>44845</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B291" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="C273" s="3">
-        <v>56500</v>
-      </c>
-      <c r="E273"/>
-    </row>
-    <row r="274" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="2">
+      <c r="C291" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E291"/>
+    </row>
+    <row r="292" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
         <v>44845</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B292" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="C292" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E292"/>
+    </row>
+    <row r="293" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B293" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="C274" s="3">
-        <v>24100</v>
-      </c>
-      <c r="E274"/>
-    </row>
-    <row r="275" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B275" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C275" s="3">
-        <v>3300</v>
-      </c>
-      <c r="E275"/>
-    </row>
-    <row r="276" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="C276" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E276"/>
-    </row>
-    <row r="277" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="2">
-        <v>44845</v>
-      </c>
-      <c r="B277" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="C277" s="3">
+      <c r="C293" s="3">
         <v>26590</v>
       </c>
-      <c r="E277"/>
-    </row>
-    <row r="278" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="2"/>
-      <c r="B278" s="10"/>
-      <c r="E278"/>
-    </row>
-    <row r="279" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="2"/>
-      <c r="B279" s="10"/>
-      <c r="E279"/>
-    </row>
-    <row r="280" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="2"/>
-      <c r="B280" s="10"/>
-      <c r="E280"/>
-    </row>
-    <row r="281" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="2"/>
-      <c r="B281" s="10"/>
-      <c r="E281"/>
-    </row>
-    <row r="282" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="2"/>
-      <c r="B282" s="10"/>
-      <c r="E282"/>
-    </row>
-    <row r="283" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="2"/>
-      <c r="B283" s="10"/>
-      <c r="E283"/>
-    </row>
-    <row r="284" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="2"/>
-      <c r="B284" s="10"/>
-      <c r="E284"/>
-    </row>
-    <row r="285" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="2"/>
-      <c r="B285" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C285" s="3">
-        <v>30000</v>
-      </c>
-      <c r="E285"/>
-    </row>
-    <row r="286" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="2"/>
-      <c r="B286" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C286" s="3">
-        <v>20680</v>
-      </c>
-      <c r="E286"/>
-    </row>
-    <row r="287" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="2"/>
-      <c r="B287" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C287" s="3">
-        <v>12800</v>
-      </c>
-      <c r="E287"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E288" s="10"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C289" s="3">
-        <f>SUM(C265:C288)</f>
-        <v>247850</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C290" s="3">
-        <f>450000-C289</f>
-        <v>202150</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="E293"/>
     </row>
     <row r="294" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>44805</v>
+        <v>44848</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="C294" s="3">
-        <v>60000</v>
+        <v>6800</v>
       </c>
       <c r="E294"/>
     </row>
     <row r="295" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="25">
-        <v>44834</v>
-      </c>
-      <c r="B295" s="37" t="s">
-        <v>792</v>
-      </c>
-      <c r="C295" s="68">
-        <v>630000</v>
+      <c r="A295" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="C295" s="3">
+        <v>5500</v>
       </c>
       <c r="E295"/>
     </row>
     <row r="296" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="25">
-        <v>44840</v>
-      </c>
-      <c r="B296" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="C296" s="68">
-        <v>10000</v>
+      <c r="A296" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C296" s="3">
+        <v>3400</v>
       </c>
       <c r="E296"/>
     </row>
     <row r="297" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="25">
-        <v>44840</v>
-      </c>
-      <c r="B297" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="C297" s="68">
-        <v>5500</v>
+      <c r="A297" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="C297" s="3">
+        <v>2650</v>
       </c>
       <c r="E297"/>
     </row>
     <row r="298" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="25">
-        <v>44840</v>
-      </c>
-      <c r="B298" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="C298" s="68">
-        <v>6260</v>
+      <c r="A298" s="2">
+        <v>44849</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="C298" s="3">
+        <v>29800</v>
       </c>
       <c r="E298"/>
     </row>
     <row r="299" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="25">
-        <v>44845</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C299" s="68">
-        <v>40520</v>
+      <c r="A299" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C299" s="3">
+        <v>26740</v>
       </c>
       <c r="E299"/>
     </row>
     <row r="300" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="25">
-        <v>44845</v>
-      </c>
-      <c r="B300" s="37" t="s">
-        <v>829</v>
-      </c>
-      <c r="C300" s="68">
-        <v>29000</v>
+      <c r="A300" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="C300" s="3">
+        <v>5200</v>
       </c>
       <c r="E300"/>
     </row>
     <row r="301" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="2"/>
-      <c r="B301" s="102"/>
+      <c r="A301" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="D301" s="3">
+        <v>9100</v>
+      </c>
       <c r="E301"/>
     </row>
     <row r="302" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="63"/>
-      <c r="B302" s="37"/>
-      <c r="C302" s="68"/>
+      <c r="A302" s="2">
+        <v>44850</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="C302" s="3">
+        <v>17000</v>
+      </c>
       <c r="E302"/>
     </row>
     <row r="303" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="63"/>
-      <c r="B303" s="37"/>
-      <c r="C303" s="68"/>
+      <c r="A303" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="C303" s="3">
+        <v>60130</v>
+      </c>
       <c r="E303"/>
     </row>
     <row r="304" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="63"/>
-      <c r="B304" s="37"/>
-      <c r="C304" s="68"/>
+      <c r="A304" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C304" s="3">
+        <v>12500</v>
+      </c>
       <c r="E304"/>
     </row>
     <row r="305" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="63"/>
-      <c r="B305" s="37"/>
-      <c r="C305" s="68"/>
+      <c r="A305" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="C305" s="3">
+        <v>2500</v>
+      </c>
       <c r="E305"/>
     </row>
     <row r="306" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="63"/>
-      <c r="B306" s="37"/>
-      <c r="C306" s="68"/>
+      <c r="A306" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="C306" s="3">
+        <v>24400</v>
+      </c>
       <c r="E306"/>
     </row>
+    <row r="307" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="C307" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E307"/>
+    </row>
     <row r="308" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="120"/>
-      <c r="B308"/>
+      <c r="A308" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>863</v>
+      </c>
       <c r="C308" s="3">
-        <f>SUM(C294:C307)</f>
-        <v>781280</v>
+        <v>1500</v>
       </c>
       <c r="E308"/>
     </row>
+    <row r="309" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="C309" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E309"/>
+    </row>
+    <row r="310" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C310" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E310"/>
+    </row>
+    <row r="311" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C311" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E311"/>
+    </row>
     <row r="312" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B312"/>
+      <c r="A312" s="2">
+        <v>44857</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="C312" s="3">
+        <v>3500</v>
+      </c>
       <c r="E312"/>
     </row>
     <row r="313" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
-        <v>44835</v>
+        <v>44857</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>802</v>
+        <v>874</v>
       </c>
       <c r="C313" s="3">
-        <v>1300</v>
+        <v>5000</v>
       </c>
       <c r="E313"/>
     </row>
     <row r="314" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
-        <v>44835</v>
+        <v>44857</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>802</v>
+        <v>875</v>
       </c>
       <c r="C314" s="3">
-        <v>4200</v>
+        <v>8600</v>
       </c>
       <c r="E314"/>
     </row>
     <row r="315" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
-        <v>44835</v>
+        <v>44858</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>803</v>
+        <v>876</v>
       </c>
       <c r="C315" s="3">
-        <v>4300</v>
+        <v>1000</v>
       </c>
       <c r="E315"/>
     </row>
     <row r="316" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
-        <v>44835</v>
+        <v>44858</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>804</v>
+        <v>877</v>
       </c>
       <c r="C316" s="3">
-        <v>26300</v>
+        <v>33620</v>
       </c>
       <c r="E316"/>
     </row>
     <row r="317" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
-        <v>44835</v>
+        <v>44859</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>805</v>
+        <v>878</v>
       </c>
       <c r="C317" s="3">
-        <v>19000</v>
+        <v>25300</v>
       </c>
       <c r="E317"/>
     </row>
     <row r="318" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="25">
-        <v>44836</v>
+      <c r="A318" s="2">
+        <v>44859</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>806</v>
+        <v>879</v>
       </c>
       <c r="C318" s="3">
-        <v>25170</v>
+        <v>15500</v>
       </c>
       <c r="E318"/>
     </row>
     <row r="319" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
-        <v>44836</v>
+        <v>44859</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>807</v>
+        <v>879</v>
       </c>
       <c r="C319" s="3">
-        <v>28460</v>
+        <v>3000</v>
       </c>
       <c r="E319"/>
     </row>
     <row r="320" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
-        <v>44836</v>
+        <v>44860</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>807</v>
+        <v>880</v>
       </c>
       <c r="C320" s="3">
-        <v>8790</v>
+        <v>10650</v>
       </c>
       <c r="E320"/>
     </row>
     <row r="321" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
-        <v>44836</v>
+        <v>44860</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>808</v>
+        <v>881</v>
       </c>
       <c r="C321" s="3">
-        <v>4600</v>
+        <v>191682</v>
       </c>
       <c r="E321"/>
     </row>
     <row r="322" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
-        <v>44836</v>
+        <v>44860</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>809</v>
+        <v>882</v>
       </c>
       <c r="C322" s="3">
         <v>2400</v>
@@ -32944,404 +33581,882 @@
     </row>
     <row r="323" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
-        <v>44836</v>
+        <v>44859</v>
       </c>
       <c r="B323" s="10" t="s">
-        <v>810</v>
+        <v>883</v>
       </c>
       <c r="C323" s="3">
-        <v>21900</v>
+        <v>24000</v>
       </c>
       <c r="E323"/>
     </row>
     <row r="324" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
-        <v>44836</v>
+        <v>44861</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>811</v>
+        <v>901</v>
       </c>
       <c r="C324" s="3">
-        <v>36700</v>
+        <v>21700</v>
       </c>
       <c r="E324"/>
     </row>
     <row r="325" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B325" s="121" t="s">
-        <v>802</v>
+        <v>44861</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>902</v>
       </c>
       <c r="C325" s="3">
-        <v>4200</v>
+        <v>27600</v>
       </c>
       <c r="E325"/>
     </row>
     <row r="326" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B326" s="10" t="s">
-        <v>802</v>
-      </c>
-      <c r="C326" s="3">
-        <v>1300</v>
-      </c>
+      <c r="A326" s="2"/>
+      <c r="B326" s="10"/>
       <c r="E326"/>
     </row>
     <row r="327" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B327" s="10" t="s">
-        <v>814</v>
-      </c>
-      <c r="C327" s="3">
-        <v>5800</v>
-      </c>
+      <c r="A327" s="2"/>
+      <c r="B327" s="10"/>
       <c r="E327"/>
     </row>
     <row r="328" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>812</v>
+      <c r="A328" s="2"/>
+      <c r="B328" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C328" s="3">
-        <v>46060</v>
+        <v>30000</v>
       </c>
       <c r="E328"/>
     </row>
     <row r="329" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="2">
-        <v>44837</v>
-      </c>
-      <c r="B329" s="10" t="s">
-        <v>811</v>
+      <c r="A329" s="2"/>
+      <c r="B329" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C329" s="3">
-        <v>36223</v>
+        <v>20680</v>
       </c>
       <c r="E329"/>
     </row>
     <row r="330" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="2">
-        <v>44838</v>
-      </c>
-      <c r="B330" s="10" t="s">
-        <v>815</v>
+      <c r="A330" s="2"/>
+      <c r="B330" s="15" t="s">
+        <v>263</v>
       </c>
       <c r="C330" s="3">
-        <v>1700</v>
+        <v>12800</v>
       </c>
       <c r="E330"/>
     </row>
-    <row r="331" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="2">
-        <v>44838</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="C331" s="3">
-        <v>5700</v>
-      </c>
-      <c r="E331"/>
-    </row>
-    <row r="332" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="2">
-        <v>44839</v>
-      </c>
-      <c r="B332" s="10" t="s">
-        <v>818</v>
-      </c>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E331" s="10"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C332" s="3">
-        <v>40500</v>
-      </c>
-      <c r="E332"/>
-    </row>
-    <row r="333" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="2">
+        <f>SUM(C281:C331)</f>
+        <v>864122</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C333" s="3">
+        <f>450000-C332</f>
+        <v>-414122</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C337" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="25">
+        <v>44834</v>
+      </c>
+      <c r="B338" s="37" t="s">
+        <v>792</v>
+      </c>
+      <c r="C338" s="68">
+        <v>630000</v>
+      </c>
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="25">
         <v>44840</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B339" s="37" t="s">
         <v>819</v>
       </c>
-      <c r="C333" s="3">
-        <v>23100</v>
-      </c>
-      <c r="E333"/>
-    </row>
-    <row r="334" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="2">
+      <c r="C339" s="68">
+        <v>10000</v>
+      </c>
+      <c r="E339"/>
+    </row>
+    <row r="340" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="25">
         <v>44840</v>
       </c>
-      <c r="B334" s="10" t="s">
-        <v>820</v>
-      </c>
-      <c r="C334" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E334"/>
-    </row>
-    <row r="335" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="2">
+      <c r="B340" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="C340" s="68">
+        <v>5500</v>
+      </c>
+      <c r="E340"/>
+    </row>
+    <row r="341" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="25">
         <v>44840</v>
       </c>
-      <c r="B335" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="C335" s="3">
-        <v>4850</v>
-      </c>
-      <c r="E335"/>
-    </row>
-    <row r="336" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="2"/>
-      <c r="B336" s="10"/>
-      <c r="E336"/>
-    </row>
-    <row r="338" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="120"/>
-      <c r="B338"/>
-      <c r="C338" s="3">
-        <f>SUM(C313:C337)</f>
-        <v>353553</v>
-      </c>
-      <c r="E338"/>
-    </row>
-    <row r="339" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="120"/>
-      <c r="B339"/>
-      <c r="C339" s="3">
-        <f>300000-C338</f>
-        <v>-53553</v>
-      </c>
-      <c r="E339"/>
+      <c r="B341" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C341" s="68">
+        <v>6260</v>
+      </c>
+      <c r="E341"/>
+    </row>
+    <row r="342" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="25">
+        <v>44845</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C342" s="68">
+        <v>40520</v>
+      </c>
+      <c r="E342"/>
     </row>
     <row r="343" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="B343"/>
+      <c r="A343" s="25">
+        <v>44845</v>
+      </c>
+      <c r="B343" s="37" t="s">
+        <v>827</v>
+      </c>
+      <c r="C343" s="68">
+        <v>29000</v>
+      </c>
       <c r="E343"/>
     </row>
     <row r="344" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B344" s="102" t="s">
+        <v>861</v>
+      </c>
+      <c r="C344" s="3">
+        <v>42880</v>
+      </c>
+      <c r="E344"/>
+    </row>
+    <row r="345" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="63">
+        <v>44854</v>
+      </c>
+      <c r="B345" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="C345" s="68">
+        <v>59800</v>
+      </c>
+      <c r="E345"/>
+    </row>
+    <row r="346" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="63">
+        <v>44856</v>
+      </c>
+      <c r="B346" s="37" t="s">
+        <v>868</v>
+      </c>
+      <c r="C346" s="68">
+        <v>125000</v>
+      </c>
+      <c r="E346"/>
+    </row>
+    <row r="347" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="63">
+        <v>44856</v>
+      </c>
+      <c r="B347" s="37" t="s">
+        <v>869</v>
+      </c>
+      <c r="C347" s="68">
+        <v>40000</v>
+      </c>
+      <c r="E347"/>
+    </row>
+    <row r="348" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="63">
+        <v>44856</v>
+      </c>
+      <c r="B348" s="37" t="s">
+        <v>870</v>
+      </c>
+      <c r="C348" s="68">
+        <v>122000</v>
+      </c>
+      <c r="E348"/>
+    </row>
+    <row r="349" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="63"/>
+      <c r="B349" s="37"/>
+      <c r="C349" s="68"/>
+      <c r="E349"/>
+    </row>
+    <row r="350" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="63"/>
+      <c r="B350" s="37"/>
+      <c r="C350" s="68"/>
+      <c r="E350"/>
+    </row>
+    <row r="351" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C351" s="3">
+        <v>3620</v>
+      </c>
+      <c r="E351"/>
+    </row>
+    <row r="352" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="63"/>
+      <c r="B352" s="37"/>
+      <c r="C352" s="68"/>
+      <c r="E352"/>
+    </row>
+    <row r="353" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="63"/>
+      <c r="B353" s="37"/>
+      <c r="C353" s="68"/>
+      <c r="E353"/>
+    </row>
+    <row r="355" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="120"/>
+      <c r="B355"/>
+      <c r="C355" s="3">
+        <f>SUM(C337:C354)</f>
+        <v>1174580</v>
+      </c>
+      <c r="E355"/>
+    </row>
+    <row r="359" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B359"/>
+      <c r="E359"/>
+    </row>
+    <row r="360" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C360" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E360"/>
+    </row>
+    <row r="361" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C361" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E361"/>
+    </row>
+    <row r="362" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C362" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E362"/>
+    </row>
+    <row r="363" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C363" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E363"/>
+    </row>
+    <row r="364" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C364" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E364"/>
+    </row>
+    <row r="365" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="25">
+        <v>44836</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C365" s="3">
+        <v>25170</v>
+      </c>
+      <c r="E365"/>
+    </row>
+    <row r="366" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C366" s="3">
+        <v>28460</v>
+      </c>
+      <c r="E366"/>
+    </row>
+    <row r="367" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C367" s="3">
+        <v>8790</v>
+      </c>
+      <c r="E367"/>
+    </row>
+    <row r="368" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C368" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E368"/>
+    </row>
+    <row r="369" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C369" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E369"/>
+    </row>
+    <row r="370" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="C370" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E370"/>
+    </row>
+    <row r="371" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>44836</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C371" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E371"/>
+    </row>
+    <row r="372" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B372" s="121" t="s">
+        <v>801</v>
+      </c>
+      <c r="C372" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E372"/>
+    </row>
+    <row r="373" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C373" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E373"/>
+    </row>
+    <row r="374" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C374" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E374"/>
+    </row>
+    <row r="375" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C375" s="3">
+        <v>46060</v>
+      </c>
+      <c r="E375"/>
+    </row>
+    <row r="376" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>44837</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C376" s="3">
+        <v>36223</v>
+      </c>
+      <c r="E376"/>
+    </row>
+    <row r="377" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
         <v>44838</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B377" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C377" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E377"/>
+    </row>
+    <row r="378" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C378" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E378"/>
+    </row>
+    <row r="379" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>44839</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>816</v>
+      </c>
+      <c r="C379" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E379"/>
+    </row>
+    <row r="380" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C380" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E380"/>
+    </row>
+    <row r="381" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="C381" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E381"/>
+    </row>
+    <row r="382" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="C382" s="3">
+        <v>4850</v>
+      </c>
+      <c r="E382"/>
+    </row>
+    <row r="383" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="2"/>
+      <c r="B383" s="10"/>
+      <c r="E383"/>
+    </row>
+    <row r="385" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="120"/>
+      <c r="B385"/>
+      <c r="C385" s="3">
+        <f>SUM(C360:C384)</f>
+        <v>353553</v>
+      </c>
+      <c r="E385"/>
+    </row>
+    <row r="386" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="120"/>
+      <c r="B386"/>
+      <c r="C386" s="3">
+        <f>300000-C385</f>
+        <v>-53553</v>
+      </c>
+      <c r="E386"/>
+    </row>
+    <row r="390" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B390"/>
+      <c r="E390"/>
+    </row>
+    <row r="391" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B391" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="C344" s="3">
+      <c r="C391" s="3">
         <v>488870</v>
       </c>
-      <c r="E344"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="2">
+      <c r="E391"/>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
         <v>44838</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B392" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="C345" s="3">
+      <c r="C392" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="2"/>
-      <c r="B346" s="10"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="2"/>
-      <c r="B347" s="10"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="2"/>
-      <c r="B348" s="10"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="2"/>
-      <c r="B349" s="10"/>
-    </row>
-    <row r="350" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="120"/>
-      <c r="B350"/>
-      <c r="C350" s="3">
-        <f>SUM(C344:C349)</f>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="2"/>
+      <c r="B393" s="10"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="2"/>
+      <c r="B394" s="10"/>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="2"/>
+      <c r="B395" s="10"/>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="2"/>
+      <c r="B396" s="10"/>
+    </row>
+    <row r="397" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="120"/>
+      <c r="B397"/>
+      <c r="C397" s="3">
+        <f>SUM(C391:C396)</f>
         <v>528870</v>
       </c>
-      <c r="E350"/>
-    </row>
-    <row r="352" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="120"/>
-      <c r="B352"/>
-      <c r="E352"/>
-    </row>
-    <row r="353" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="120"/>
-      <c r="B353"/>
-      <c r="E353"/>
-    </row>
-    <row r="354" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="36" t="s">
+      <c r="E397"/>
+    </row>
+    <row r="399" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="120"/>
+      <c r="B399"/>
+      <c r="E399"/>
+    </row>
+    <row r="400" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="120"/>
+      <c r="B400"/>
+      <c r="E400"/>
+    </row>
+    <row r="401" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="B354"/>
-      <c r="E354"/>
-    </row>
-    <row r="355" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="2"/>
-      <c r="B355" s="15" t="s">
+      <c r="B401"/>
+      <c r="E401"/>
+    </row>
+    <row r="402" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="2"/>
+      <c r="B402" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="C355" s="3">
+      <c r="C402" s="3">
         <v>20000</v>
       </c>
-      <c r="E355"/>
-    </row>
-    <row r="356" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="2"/>
-      <c r="B356" s="6" t="s">
+      <c r="E402"/>
+    </row>
+    <row r="403" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="2"/>
+      <c r="B403" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C356" s="3">
+      <c r="C403" s="3">
         <v>10000</v>
       </c>
-      <c r="E356"/>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="2">
+      <c r="E403"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
         <v>44835</v>
       </c>
-      <c r="B357" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="C357" s="3">
+      <c r="B404" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="C404" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
         <v>44836</v>
       </c>
-      <c r="B358" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="C358" s="3">
+      <c r="B405" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C405" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
         <v>44838</v>
       </c>
-      <c r="B359" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="C359" s="3">
+      <c r="B406" s="10" t="s">
+        <v>812</v>
+      </c>
+      <c r="C406" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
         <v>44838</v>
       </c>
-      <c r="B360" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="C360" s="3">
+      <c r="B407" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C407" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
         <v>44845</v>
       </c>
-      <c r="B361" s="10" t="s">
-        <v>838</v>
-      </c>
-      <c r="C361" s="3">
+      <c r="B408" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C408" s="3">
         <v>56500</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
         <v>44845</v>
       </c>
-      <c r="B362" s="10" t="s">
-        <v>839</v>
-      </c>
-      <c r="C362" s="3">
+      <c r="B409" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C409" s="3">
         <v>24100</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="63"/>
-      <c r="B363" s="37"/>
-      <c r="C363" s="68"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="2"/>
-      <c r="B364" s="10"/>
-    </row>
-    <row r="365" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="63">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>44848</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C410" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C411" s="3">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="63">
+        <v>44853</v>
+      </c>
+      <c r="B412" s="37" t="s">
+        <v>860</v>
+      </c>
+      <c r="C412" s="68">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>44858</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="C413" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>44859</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="C414" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" s="63">
+        <v>44861</v>
+      </c>
+      <c r="B415" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="C415" s="68">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="63"/>
+      <c r="B416" s="37"/>
+      <c r="C416" s="68"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="2"/>
+      <c r="B417" s="10"/>
+    </row>
+    <row r="418" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="63">
         <v>44816</v>
       </c>
-      <c r="B365" s="6" t="s">
+      <c r="B418" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C365" s="68">
+      <c r="C418" s="68">
         <v>40520</v>
       </c>
-      <c r="E365"/>
-    </row>
-    <row r="366" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="2"/>
-      <c r="B366" s="15" t="s">
+      <c r="E418"/>
+    </row>
+    <row r="419" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="2"/>
+      <c r="B419" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="C366" s="3">
+      <c r="C419" s="3">
         <v>30000</v>
       </c>
-      <c r="E366"/>
-    </row>
-    <row r="367" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="2"/>
-      <c r="B367" s="15" t="s">
+      <c r="E419"/>
+    </row>
+    <row r="420" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="2"/>
+      <c r="B420" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="C367" s="3">
+      <c r="C420" s="3">
         <v>70000</v>
       </c>
-      <c r="E367"/>
-    </row>
-    <row r="368" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="120"/>
-      <c r="B368" s="10"/>
-      <c r="E368"/>
-    </row>
-    <row r="369" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="120"/>
-      <c r="B369"/>
-      <c r="C369" s="3">
-        <f>SUM(C355:C368)</f>
-        <v>279920</v>
-      </c>
-      <c r="E369"/>
-    </row>
-    <row r="370" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="120"/>
-      <c r="B370"/>
-      <c r="C370" s="3">
-        <f>280000-C369</f>
-        <v>80</v>
-      </c>
-      <c r="E370"/>
+      <c r="E420"/>
+    </row>
+    <row r="421" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="120"/>
+      <c r="B421" s="10"/>
+      <c r="E421"/>
+    </row>
+    <row r="422" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="120"/>
+      <c r="B422"/>
+      <c r="C422" s="3">
+        <f>SUM(C402:C421)</f>
+        <v>320440</v>
+      </c>
+      <c r="E422"/>
+    </row>
+    <row r="423" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="120"/>
+      <c r="B423"/>
+      <c r="C423" s="3">
+        <f>280000-C422</f>
+        <v>-40440</v>
+      </c>
+      <c r="E423"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -34423,8 +35538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
